--- a/秋招.xlsx
+++ b/秋招.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4909A-5217-4CD8-A4EB-803AEDF27863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B088B-0077-4D20-88BB-35AF2C0491C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信协议开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递，待处理简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +125,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Tiger"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Tiger"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,18 +164,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,20 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="111.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="130.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -439,7 +483,7 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -452,44 +496,121 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45163</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" location="/myDeliver" xr:uid="{EEE13BD0-ED8A-44A4-8507-D96E7FEA8CEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/秋招.xlsx
+++ b/秋招.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B088B-0077-4D20-88BB-35AF2C0491C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527D96B-C5F3-435E-9FD3-82A14D15F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,144 @@
   </si>
   <si>
     <t>TCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智元研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园招聘列表页 (zhiye.com)</t>
+  </si>
+  <si>
+    <t>通信技术研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海格通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法设计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招职位 (zhiye.com)</t>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/account/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得先搜搜内推码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线通信协议工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/center/history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701武汉研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息与通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://01zp.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705研究所昆明分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>705</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所的投递比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tiger"/>
+        <family val="1"/>
+      </rPr>
+      <t>low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tiger"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://job.lzu.edu.cn/html/22/article/2021/35116.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=70bf42e3f12b83c01dcae3f4ef6ba12688a0a14a8468df2ba79b1c9fe20cbcea6a478cd26ef919c3c2da5b6cb131f1f1600009eb0088d291678c8d581908ddf3d95a1535683baaf15549fcaf6006293c4a2b5ce8d0d8dc4d7aa9adb00124299ebac3548d5dd5c028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信测试开发工程师/东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +283,43 @@
       <color theme="10"/>
       <name val="Tiger"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +354,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -515,16 +697,38 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="C6" s="5">
+        <v>45163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F7" s="3"/>
@@ -539,6 +743,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -558,58 +765,148 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45172</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F13" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45172</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45172</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="6:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="F25" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="92.25" x14ac:dyDescent="1.05">
+      <c r="F27" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" location="/myDeliver" xr:uid="{EEE13BD0-ED8A-44A4-8507-D96E7FEA8CEA}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{3382EC8E-CAA2-4D65-A383-E7B74F7841E3}"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://zycs.zhiye.com/personal/deliveryRecord" xr:uid="{F3901DB2-17CD-4A5D-B102-CBC2774ECB23}"/>
+    <hyperlink ref="F12" r:id="rId4" display="https://haige.zhiye.com/personal/deliveryRecord" xr:uid="{4C6ADD74-B8C0-4868-B9F1-86EE2D837F5E}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{525D5477-D2BE-42CC-9697-3C3B3D2B67D7}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{7BF9DF14-9A1B-4BFD-B758-2B3542E0CEFD}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{D4D50A5B-679C-47CE-8D6B-AD55900D3745}"/>
+    <hyperlink ref="F15" r:id="rId8" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=70bf42e3f12b83c01dcae3f4ef6ba12688a0a14a8468df2ba79b1c9fe20cbcea6a478cd26ef919c3c2da5b6cb131f1f1600009eb0088d291678c8d581908ddf3d95a1535683baaf15549fcaf6006293c4a2b5ce8d0d8dc4d7aa9adb00124299ebac3548d5dd5c028" xr:uid="{648432D9-3AE0-45CF-A4A6-A012C4983D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/秋招.xlsx
+++ b/秋招.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527D96B-C5F3-435E-9FD3-82A14D15F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B79F78A-B40A-4067-B61B-E46F6D63E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,118 @@
   </si>
   <si>
     <t>中国电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪招聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长鑫存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯动科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天科工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评已做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://casic.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.byd.com/portal/pc/#/personalCenter/myApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师/成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德红外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电十所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基带信号处理工程师(成都)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://q.yingjiesheng.com/pc/personal?tab=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京/东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU64893571bef57c16d356b99e/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉联特科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师/深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑达无线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信/深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -679,16 +791,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45179</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -742,11 +862,22 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45175</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -833,7 +964,7 @@
         <v>45173</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>40</v>
@@ -870,30 +1001,137 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45175</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F23" s="3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45174</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="F25" s="3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45175</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="92.25" x14ac:dyDescent="1.05">
       <c r="F27" s="10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45179</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45179</v>
       </c>
     </row>
   </sheetData>
@@ -907,6 +1145,11 @@
     <hyperlink ref="F13" r:id="rId6" xr:uid="{7BF9DF14-9A1B-4BFD-B758-2B3542E0CEFD}"/>
     <hyperlink ref="F16" r:id="rId7" xr:uid="{D4D50A5B-679C-47CE-8D6B-AD55900D3745}"/>
     <hyperlink ref="F15" r:id="rId8" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=70bf42e3f12b83c01dcae3f4ef6ba12688a0a14a8468df2ba79b1c9fe20cbcea6a478cd26ef919c3c2da5b6cb131f1f1600009eb0088d291678c8d581908ddf3d95a1535683baaf15549fcaf6006293c4a2b5ce8d0d8dc4d7aa9adb00124299ebac3548d5dd5c028" xr:uid="{648432D9-3AE0-45CF-A4A6-A012C4983D3E}"/>
+    <hyperlink ref="F23" r:id="rId9" xr:uid="{06E00C27-D623-4AB1-990D-781BD88AC675}"/>
+    <hyperlink ref="F19" r:id="rId10" location="/personalCenter/myApply" xr:uid="{1BD196A8-BA17-4AEE-ABFC-1D944438E6C5}"/>
+    <hyperlink ref="F9" r:id="rId11" location="/candidateHome/applications" xr:uid="{FECEF5F9-0ED3-4EB2-A071-4658FBD2892A}"/>
+    <hyperlink ref="F25" r:id="rId12" xr:uid="{B5109CE5-2A20-49C4-A412-E8097544DA8B}"/>
+    <hyperlink ref="F3" r:id="rId13" location="/myDeliver" xr:uid="{40129EDE-7AC9-450C-96FE-E306950A5029}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/秋招.xlsx
+++ b/秋招.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B79F78A-B40A-4067-B61B-E46F6D63E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC1791-5372-424A-BCA2-503FDEBC78E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,65 @@
   </si>
   <si>
     <t>通信/深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱瑞无线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信/成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇川技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhipin.com/volunteer/index?source=2&amp;advertSource=99&amp;recommendCode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理咨询顾问/广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐德电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的申请 (siemens.com.cn)</t>
+  </si>
+  <si>
+    <t>产品销售专家 广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星网锐捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瑞继保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信电子研发工程师/南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短距通信工程师/南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -951,6 +1010,15 @@
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,6 +1200,75 @@
       </c>
       <c r="C31" s="5">
         <v>45179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45181</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45182</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45183</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1150,6 +1287,8 @@
     <hyperlink ref="F9" r:id="rId11" location="/candidateHome/applications" xr:uid="{FECEF5F9-0ED3-4EB2-A071-4658FBD2892A}"/>
     <hyperlink ref="F25" r:id="rId12" xr:uid="{B5109CE5-2A20-49C4-A412-E8097544DA8B}"/>
     <hyperlink ref="F3" r:id="rId13" location="/myDeliver" xr:uid="{40129EDE-7AC9-450C-96FE-E306950A5029}"/>
+    <hyperlink ref="F34" r:id="rId14" xr:uid="{02A8BEDC-529F-428C-9A4B-40DEA59DDA43}"/>
+    <hyperlink ref="F35" r:id="rId15" display="https://jobs.siemens.com.cn/siemens/user/delivery" xr:uid="{580F4E49-95CF-4A51-8977-EA0F9A026B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
